--- a/form.xlsx
+++ b/form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\GitHub\HighFrequencyChecks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{06D42C90-7B48-4343-B725-C45B4927DDB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ED425B-6A52-48AA-97BA-763869B536B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19760" xr2:uid="{2D7CC885-6DBB-4B98-A2F9-7768F6E2AF6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="153">
   <si>
     <t>begin_init_var</t>
   </si>
@@ -117,15 +117,9 @@
     <t>Durations of surveys</t>
   </si>
   <si>
-    <t>Beware that surveys with potential errors on the dates are not marked for deletion which can lead to weird durations</t>
-  </si>
-  <si>
     <t>chk5a_duration</t>
   </si>
   <si>
-    <t>The total time of data collection is **`r tot`** minutes and the average time per survey is **`r avg`** minutes</t>
-  </si>
-  <si>
     <t>Enumerators who made a survey below **`r mindur`** minutes</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>4. Enumerators checks</t>
   </si>
   <si>
-    <t># devrait donner un csv</t>
-  </si>
-  <si>
     <t>Percentage of survey per consent status by enumerator</t>
   </si>
   <si>
@@ -204,9 +195,6 @@
     <t># Loads needed datasets</t>
   </si>
   <si>
-    <t># Loads needed shapefiles</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -234,9 +222,6 @@
     <t>c("survey_start","end_survey")</t>
   </si>
   <si>
-    <t>Header</t>
-  </si>
-  <si>
     <t>adm</t>
   </si>
   <si>
@@ -354,9 +339,6 @@
     <t>"11/11/2018"</t>
   </si>
   <si>
-    <t>Enumerators who pick up less than **`r minans`** answers per specific questions (Header level)</t>
-  </si>
-  <si>
     <t>sdvalue</t>
   </si>
   <si>
@@ -366,85 +348,142 @@
     <t># Should not happen</t>
   </si>
   <si>
-    <t>Header$union_name&lt;-tolower(Header$union_name)</t>
-  </si>
-  <si>
     <t>SampleSize$Union&lt;-tolower(SampleSize$Union)</t>
   </si>
   <si>
     <t>adm$Union&lt;-tolower(adm$Union)</t>
   </si>
   <si>
-    <t>adm, Header, df_site, df_coord, admin_site, consent, reportcol, TRUE</t>
-  </si>
-  <si>
-    <t>pts, Header, df_coord, buffer, consent, reportcol, TRUE</t>
-  </si>
-  <si>
-    <t>Header, uuid, consent, reportcol, TRUE</t>
-  </si>
-  <si>
-    <t>Header, consent, dates, reportcol, FALSE</t>
-  </si>
-  <si>
-    <t>Header, consent, dates, startdate, reportcol, FALSE</t>
-  </si>
-  <si>
-    <t>Header, dates</t>
-  </si>
-  <si>
-    <t>Header, consent, dates, reportcol, mindur, TRUE</t>
-  </si>
-  <si>
-    <t>Header, surveydte, dteformat, consent</t>
-  </si>
-  <si>
-    <t>Header, SampleSize, df_site, sf_site, consent, sf_target, sf_nbpts, formul, colorder</t>
-  </si>
-  <si>
-    <t>Header, enumid, TRUE</t>
-  </si>
-  <si>
-    <t>Header, otherpattern, enumid, TRUE</t>
-  </si>
-  <si>
-    <t>Header, consent, enumid</t>
-  </si>
-  <si>
-    <t>Header, dates, enumid</t>
-  </si>
-  <si>
-    <t>Header, surveydte, enumid</t>
-  </si>
-  <si>
-    <t>Header, enumid, surveydte, sdvalue</t>
-  </si>
-  <si>
     <t>functionsOptions</t>
   </si>
   <si>
     <t>otherOptions</t>
   </si>
   <si>
-    <t>level=lev1</t>
-  </si>
-  <si>
-    <t>output=csv; level=lev1</t>
-  </si>
-  <si>
-    <t># should be only on level 1 part of the survey</t>
-  </si>
-  <si>
-    <t># voir pour la formule et l'ordre des colonnes; should be only on level 1 part of the survey</t>
-  </si>
-  <si>
-    <t>questions_lev1</t>
-  </si>
-  <si>
-    <t>Header, enumid, questions_lev1, minans</t>
-  </si>
-  <si>
     <t># Questions list for which we want to check if the enumerators provide less than "minans" answers, the set of questions has to be defined by level we want to check against (important: do not forget the [.] at the end)</t>
+  </si>
+  <si>
+    <t>lev1</t>
+  </si>
+  <si>
+    <t># Create the dataset structure (named list of df)</t>
+  </si>
+  <si>
+    <t>begin_ds_struct</t>
+  </si>
+  <si>
+    <t>end_ds_struct</t>
+  </si>
+  <si>
+    <t>adm, lev1, df_site, df_coord, admin_site, consent, reportcol, TRUE</t>
+  </si>
+  <si>
+    <t>lev1, uuid, consent, reportcol, TRUE</t>
+  </si>
+  <si>
+    <t>lev1, consent, dates, reportcol, FALSE</t>
+  </si>
+  <si>
+    <t>lev1, dates</t>
+  </si>
+  <si>
+    <t>lev1, consent, dates, reportcol, mindur, TRUE</t>
+  </si>
+  <si>
+    <t>lev1, surveydte, dteformat, consent</t>
+  </si>
+  <si>
+    <t>lev1, SampleSize, df_site, sf_site, consent, sf_target, sf_nbpts, formul, colorder</t>
+  </si>
+  <si>
+    <t>lev1, enumid, TRUE</t>
+  </si>
+  <si>
+    <t>lev1, consent, enumid</t>
+  </si>
+  <si>
+    <t>lev1, dates, enumid</t>
+  </si>
+  <si>
+    <t>lev1, surveydte, enumid</t>
+  </si>
+  <si>
+    <t>lev1, enumid, surveydte, sdvalue</t>
+  </si>
+  <si>
+    <t>The total time of data collection is **`r var3$tot`** minutes and the average time per survey is **`r var3$avg`** minutes</t>
+  </si>
+  <si>
+    <t>lev1, pts, df_coord, buffer, consent, reportcol, TRUE</t>
+  </si>
+  <si>
+    <t>lev1, dates, consent, startdate, reportcol, FALSE</t>
+  </si>
+  <si>
+    <t>lev1, otherpattern, enumid, FALSE</t>
+  </si>
+  <si>
+    <t>output=csv</t>
+  </si>
+  <si>
+    <t># devrait donner un csv; can be distinct level</t>
+  </si>
+  <si>
+    <t># can be distinct level</t>
+  </si>
+  <si>
+    <t>#Header</t>
+  </si>
+  <si>
+    <t>begin_shp</t>
+  </si>
+  <si>
+    <t>end_shp</t>
+  </si>
+  <si>
+    <t># spatial information for GIS checks</t>
+  </si>
+  <si>
+    <t># site boundaries shapefile</t>
+  </si>
+  <si>
+    <t># sampled points shapefile</t>
+  </si>
+  <si>
+    <t># samples information dataset</t>
+  </si>
+  <si>
+    <t>begin_sample</t>
+  </si>
+  <si>
+    <t>end_sample</t>
+  </si>
+  <si>
+    <t>dset[["lev1"]]$union_name&lt;-tolower(dset[["lev1"]]$union_name)</t>
+  </si>
+  <si>
+    <t># voir pour la formule et l'ordre des colonnes; must be only on level 1 part of the survey</t>
+  </si>
+  <si>
+    <t># only on level 1 part of the survey</t>
+  </si>
+  <si>
+    <t>Beware that if surveys with potential errors on the dates are not marked for deletion which can lead to weird durations</t>
+  </si>
+  <si>
+    <t>Enumerators who pick up less than **`r minans`** answers per specific questions (Level1 level)</t>
+  </si>
+  <si>
+    <t>questions_enumeratorIsLazy_level1</t>
+  </si>
+  <si>
+    <t>lev1, enumid, questions_enumeratorIsLazy_level1, minans</t>
+  </si>
+  <si>
+    <t>options(scipen = 999)</t>
+  </si>
+  <si>
+    <t># disable scientific notation</t>
   </si>
 </sst>
 </file>
@@ -832,18 +871,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536E5E13-C4F4-4423-9F30-9428EF47DE40}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="90.453125" customWidth="1"/>
     <col min="3" max="3" width="60.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
     <col min="5" max="5" width="38.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -855,594 +894,569 @@
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>114</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
+      <c r="B14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" t="s">
-        <v>106</v>
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
+        <v>77</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32">
         <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>93</v>
+      </c>
+      <c r="E36" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" t="s">
-        <v>120</v>
-      </c>
-      <c r="E51" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" t="s">
-        <v>119</v>
-      </c>
-      <c r="E53" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>10</v>
       </c>
-      <c r="B55" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56" t="s">
-        <v>135</v>
+      <c r="B56" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -1450,7 +1464,7 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -1458,43 +1472,43 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" t="s">
-        <v>123</v>
-      </c>
-      <c r="E62" t="s">
-        <v>135</v>
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -1502,21 +1516,22 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D64"/>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -1524,87 +1539,81 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" t="s">
-        <v>136</v>
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D69" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" t="s">
-        <v>45</v>
+      <c r="B70" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" t="s">
-        <v>47</v>
+      <c r="B72" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -1612,7 +1621,7 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -1620,79 +1629,79 @@
         <v>12</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" t="s">
-        <v>53</v>
+      <c r="B77" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E77" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" t="s">
-        <v>129</v>
-      </c>
-      <c r="E78" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" t="s">
-        <v>55</v>
+      <c r="B79" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" t="s">
-        <v>130</v>
-      </c>
-      <c r="E80" t="s">
-        <v>135</v>
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -1700,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -1708,23 +1717,111 @@
         <v>12</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C82" t="s">
-        <v>138</v>
-      </c>
-      <c r="D82" t="s">
-        <v>133</v>
+        <v>124</v>
+      </c>
+      <c r="E82" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" t="s">
+        <v>126</v>
+      </c>
+      <c r="E86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" t="s">
+        <v>127</v>
+      </c>
+      <c r="E88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>150</v>
+      </c>
+      <c r="E90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
